--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -40,109 +40,121 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>negative</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>least</t>
@@ -151,30 +163,15 @@
     <t>black</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -187,13 +184,28 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>happy</t>
@@ -202,52 +214,64 @@
     <t>important</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>okay</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>live</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>please</t>
@@ -256,52 +280,28 @@
     <t>really</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>world</t>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>watched</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>dilemma</t>
   </si>
   <si>
     <t>positive</t>
@@ -662,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -802,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -831,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -931,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,10 +1034,10 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.86</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,16 +1102,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.7586206896551724</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8181818181818182</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.7192982456140351</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.7066666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1252,16 +1252,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.65</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15">
         <v>0.6153846153846154</v>
@@ -1381,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,31 +1399,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16">
+        <v>0.6</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L16">
-        <v>7</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.725</v>
+        <v>0.775</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.5789473684210527</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18">
         <v>0.5185185185185185</v>
@@ -1531,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.3939393939393939</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6382978723404256</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6153846153846154</v>
+        <v>0.65</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.3611111111111111</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.2926829268292683</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.2692307692307692</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.2686703096539162</v>
+        <v>0.375</v>
       </c>
       <c r="L25">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>803</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.572463768115942</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C26">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.2608695652173913</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,7 +1931,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -1949,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.2608695652173913</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,13 +1981,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5641025641025641</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.2592592592592592</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.2542372881355932</v>
+        <v>0.2641165755919854</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.55</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2099,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.2173913043478261</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2131,13 +2131,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5416666666666666</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2152,16 +2152,16 @@
         <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.1643835616438356</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2181,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2199,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.1473684210526316</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2231,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5384615384615384</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2249,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.1384615384615385</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L33">
         <v>9</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2281,38 +2281,38 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5294117647058824</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="L34">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="M34">
         <v>9</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>8</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K34">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="L34">
-        <v>6</v>
-      </c>
-      <c r="M34">
-        <v>6</v>
-      </c>
       <c r="N34">
         <v>1</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2334,35 +2334,35 @@
         <v>0.5</v>
       </c>
       <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="L35">
         <v>7</v>
       </c>
-      <c r="D35">
+      <c r="M35">
         <v>7</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35">
-        <v>0.1311475409836066</v>
-      </c>
-      <c r="L35">
-        <v>8</v>
-      </c>
-      <c r="M35">
-        <v>8</v>
-      </c>
       <c r="N35">
         <v>1</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2381,13 +2381,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.1294117647058824</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2431,13 +2431,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4285714285714285</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.1267605633802817</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2481,13 +2481,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3684210526315789</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2499,19 +2499,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.1111111111111111</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2531,13 +2531,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3214285714285715</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2549,19 +2549,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.08955223880597014</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2581,13 +2581,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2857142857142857</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.05421686746987952</v>
+        <v>0.05571847507331378</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>628</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2631,13 +2631,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2727272727272727</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2649,19 +2649,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41">
-        <v>0.05109489051094891</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>130</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2681,13 +2681,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.25</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2699,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>0.04545454545454546</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>588</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2731,13 +2731,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1923076923076923</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2749,19 +2749,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43">
-        <v>0.03886925795053003</v>
+        <v>0.04058441558441558</v>
       </c>
       <c r="L43">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>272</v>
+        <v>591</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2781,37 +2781,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.04026845637583892</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C44">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.03148148148148148</v>
+        <v>0.03841229193341869</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2823,21 +2823,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>523</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.05084745762711865</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <v>0.21</v>
+      </c>
+      <c r="F45">
+        <v>0.79</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>280</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.02816901408450704</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2849,21 +2873,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>759</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.02649769585253456</v>
+        <v>0.02592165898617511</v>
       </c>
       <c r="L46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2875,21 +2899,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.02430555555555556</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2901,33 +2925,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K48">
-        <v>0.02346041055718475</v>
-      </c>
-      <c r="L48">
-        <v>8</v>
-      </c>
-      <c r="M48">
-        <v>8</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
